--- a/Assets/Documents/Database/Enemy/EnemyInfo.xlsx
+++ b/Assets/Documents/Database/Enemy/EnemyInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Tong hop" sheetId="10" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>LAND</t>
   </si>
   <si>
-    <t>Axes</t>
-  </si>
-  <si>
     <t>Bat</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Crow</t>
   </si>
   <si>
-    <t>Dragon</t>
-  </si>
-  <si>
     <t>Furi</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t>Iron</t>
   </si>
   <si>
-    <t>KingKong</t>
-  </si>
-  <si>
     <t>Lava</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>Thor</t>
   </si>
   <si>
-    <t>Tyni</t>
-  </si>
-  <si>
     <t>Wolf</t>
   </si>
   <si>
@@ -192,27 +180,9 @@
     <t>COIN</t>
   </si>
   <si>
-    <t>EvilDemon</t>
-  </si>
-  <si>
-    <t>OrcBlack</t>
-  </si>
-  <si>
-    <t>RedBull</t>
-  </si>
-  <si>
-    <t>Zombies1</t>
-  </si>
-  <si>
-    <t>Zombies2</t>
-  </si>
-  <si>
     <t>Kukan</t>
   </si>
   <si>
-    <t>WildBoar</t>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
@@ -265,6 +235,36 @@
   </si>
   <si>
     <t>FIRE</t>
+  </si>
+  <si>
+    <t>Orc Black</t>
+  </si>
+  <si>
+    <t>Red Bull</t>
+  </si>
+  <si>
+    <t>Thin Zombie</t>
+  </si>
+  <si>
+    <t>Fat Zombie</t>
+  </si>
+  <si>
+    <t>Tiny</t>
+  </si>
+  <si>
+    <t>Wild Boar</t>
+  </si>
+  <si>
+    <t>Evil Demon</t>
+  </si>
+  <si>
+    <t>King Kong</t>
+  </si>
+  <si>
+    <t>Blur Dragon</t>
+  </si>
+  <si>
+    <t>Axe</t>
   </si>
 </sst>
 </file>
@@ -728,46 +728,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="13"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
@@ -1108,6 +1068,46 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1481,32 +1481,32 @@
     <tableColumn id="2" name="NAME" dataDxfId="16"/>
     <tableColumn id="3" name="BOSS" dataDxfId="15"/>
     <tableColumn id="4" name="REGION" dataDxfId="14"/>
-    <tableColumn id="14" name="BRANCH" dataDxfId="0"/>
-    <tableColumn id="5" name="HP" dataDxfId="13">
+    <tableColumn id="14" name="BRANCH" dataDxfId="13"/>
+    <tableColumn id="5" name="HP" dataDxfId="12">
       <calculatedColumnFormula>IF(N2 =$Y$4, $AA$4 + $AC$4 * I2, IF(N2 = $Y$5, $AA$5 + $AC$5 * I2, IF(N2 = $Y$6, $AA$6 + $AC$6 * I2, IF(N2 = $Y$7, $AA$7 + $AC$7 * I2, IF(N2 = $Y$8, $AA$8 + $AC$8 * I2, $AA$9 + $AC$9 * I2)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Index HP" dataDxfId="12"/>
-    <tableColumn id="7" name="Speed" dataDxfId="11">
+    <tableColumn id="6" name="Index HP" dataDxfId="11"/>
+    <tableColumn id="7" name="Speed" dataDxfId="10">
       <calculatedColumnFormula>IF(N2 = $Y$16, $AA$16 + $AC$16 * K2, IF(N2 = $Y$17, $AA$17 + $AC$17 * K2, IF(N2 = $Y$18, $AA$18 + $AC$18 * K2, IF(N2 = $Y$19, $AA$19 + $AC$19 * K2, IF(N2 = $Y$20, $AA$20 + $AC$20 * K2, $AA$21 + $AC$21 * K2)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Index Speed" dataDxfId="10"/>
-    <tableColumn id="9" name="Def" dataDxfId="9"/>
-    <tableColumn id="10" name="COIN" dataDxfId="8">
+    <tableColumn id="8" name="Index Speed" dataDxfId="9"/>
+    <tableColumn id="9" name="Def" dataDxfId="8"/>
+    <tableColumn id="10" name="COIN" dataDxfId="7">
       <calculatedColumnFormula>$V$26 + $Y$26 * (H2 - $V$5) / $V$7 + $Z$26 * (L2 - $V$12) / $V$14 + $AA$26 * (J2 - $V$17) / $V$19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="LEVEL" dataDxfId="7"/>
-    <tableColumn id="12" name="Direction" dataDxfId="6"/>
-    <tableColumn id="15" name="State" dataDxfId="5"/>
-    <tableColumn id="16" name="Time Frame" dataDxfId="4"/>
-    <tableColumn id="17" name="Frame Event" dataDxfId="3"/>
-    <tableColumn id="18" name="Scale" dataDxfId="2"/>
+    <tableColumn id="11" name="LEVEL" dataDxfId="6"/>
+    <tableColumn id="12" name="Direction" dataDxfId="5"/>
+    <tableColumn id="15" name="State" dataDxfId="4"/>
+    <tableColumn id="16" name="Time Frame" dataDxfId="3"/>
+    <tableColumn id="17" name="Frame Event" dataDxfId="2"/>
+    <tableColumn id="18" name="Scale" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="U1:V3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="U1:V3" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="U1:V3"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Column1"/>
@@ -1771,7 +1771,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1782,8 +1782,8 @@
   <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,65 +1813,65 @@
   <sheetData>
     <row r="1" spans="1:29" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N1" s="51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O1" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="59" t="s">
         <v>64</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="59" t="s">
-        <v>74</v>
       </c>
       <c r="T1" s="48"/>
       <c r="U1" s="50" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="V1" s="50" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="W1" s="50"/>
       <c r="X1" s="50"/>
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H2" s="15">
         <f t="shared" ref="H2:H31" si="0">IF(N2 =$Y$4, $AA$4 + $AC$4 * I2, IF(N2 = $Y$5, $AA$5 + $AC$5 * I2, IF(N2 = $Y$6, $AA$6 + $AC$6 * I2, IF(N2 = $Y$7, $AA$7 + $AC$7 * I2, IF(N2 = $Y$8, $AA$8 + $AC$8 * I2, $AA$9 + $AC$9 * I2)))))</f>
@@ -1920,16 +1920,16 @@
         <v>1</v>
       </c>
       <c r="O2" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="61" t="s">
         <v>67</v>
-      </c>
-      <c r="P2" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="61" t="s">
-        <v>77</v>
       </c>
       <c r="S2" s="61">
         <v>100</v>
@@ -1937,30 +1937,30 @@
       <c r="U2" s="50"/>
       <c r="V2" s="50"/>
       <c r="Y2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AC2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C3" s="13">
         <v>11</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>3</v>
@@ -1969,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H3" s="15">
         <f t="shared" si="0"/>
@@ -1996,16 +1996,16 @@
         <v>1</v>
       </c>
       <c r="O3" s="60" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P3" s="61" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R3" s="62" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S3" s="62">
         <v>100</v>
@@ -2035,7 +2035,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>3</v>
@@ -2044,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" si="0"/>
@@ -2071,25 +2071,25 @@
         <v>1</v>
       </c>
       <c r="O4" s="60" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P4" s="61" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R4" s="62" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S4" s="62">
         <v>100</v>
       </c>
       <c r="U4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -2115,7 +2115,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>3</v>
@@ -2124,7 +2124,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="0"/>
@@ -2151,22 +2151,22 @@
         <v>1</v>
       </c>
       <c r="O5" s="60" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P5" s="61" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R5" s="62" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S5" s="62">
         <v>100</v>
       </c>
       <c r="U5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="V5">
         <v>40</v>
@@ -2195,7 +2195,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>3</v>
@@ -2204,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H6" s="15">
         <f t="shared" si="0"/>
@@ -2231,22 +2231,22 @@
         <v>1</v>
       </c>
       <c r="O6" s="60" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P6" s="61" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R6" s="62" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S6" s="62">
         <v>100</v>
       </c>
       <c r="U6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="V6">
         <v>1000</v>
@@ -2275,7 +2275,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>3</v>
@@ -2284,7 +2284,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H7" s="15">
         <f t="shared" si="0"/>
@@ -2311,22 +2311,22 @@
         <v>1</v>
       </c>
       <c r="O7" s="60" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P7" s="61" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R7" s="62" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S7" s="62">
         <v>100</v>
       </c>
       <c r="U7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="V7">
         <f>V6-V5</f>
@@ -2356,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>3</v>
@@ -2365,7 +2365,7 @@
         <v>4</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="0"/>
@@ -2392,16 +2392,16 @@
         <v>1</v>
       </c>
       <c r="O8" s="60" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P8" s="62" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R8" s="62" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S8" s="62">
         <v>100</v>
@@ -2430,7 +2430,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>3</v>
@@ -2439,7 +2439,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="0"/>
@@ -2466,16 +2466,16 @@
         <v>1</v>
       </c>
       <c r="O9" s="60" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P9" s="62" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R9" s="62" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S9" s="62">
         <v>100</v>
@@ -2505,16 +2505,16 @@
         <v>4</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H10" s="35">
         <f t="shared" si="0"/>
@@ -2541,16 +2541,16 @@
         <v>2</v>
       </c>
       <c r="O10" s="63" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P10" s="64" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="64" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R10" s="64" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S10" s="64">
         <v>100</v>
@@ -2561,7 +2561,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>3</v>
@@ -2570,7 +2570,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H11" s="35">
         <f t="shared" si="0"/>
@@ -2597,25 +2597,25 @@
         <v>2</v>
       </c>
       <c r="O11" s="63" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P11" s="64" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="64" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R11" s="64" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S11" s="64">
         <v>100</v>
       </c>
       <c r="U11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="V11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>3</v>
@@ -2632,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H12" s="35">
         <f t="shared" si="0"/>
@@ -2659,22 +2659,22 @@
         <v>2</v>
       </c>
       <c r="O12" s="63" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P12" s="64" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="64" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R12" s="64" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S12" s="64">
         <v>100</v>
       </c>
       <c r="U12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>25</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>3</v>
@@ -2694,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H13" s="35">
         <f t="shared" si="0"/>
@@ -2721,33 +2721,33 @@
         <v>2</v>
       </c>
       <c r="O13" s="63" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P13" s="64" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="64" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R13" s="64" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S13" s="64">
         <v>100</v>
       </c>
       <c r="U13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="V13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="33" x14ac:dyDescent="0.25">
       <c r="C14" s="33">
         <v>29</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>3</v>
@@ -2756,7 +2756,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H14" s="35">
         <f t="shared" si="0"/>
@@ -2783,22 +2783,22 @@
         <v>2</v>
       </c>
       <c r="O14" s="63" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P14" s="64" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="64" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R14" s="64" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S14" s="64">
         <v>100</v>
       </c>
       <c r="U14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="V14">
         <f>V13-V12</f>
@@ -2810,7 +2810,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>3</v>
@@ -2819,7 +2819,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H15" s="35">
         <f t="shared" si="0"/>
@@ -2846,34 +2846,34 @@
         <v>2</v>
       </c>
       <c r="O15" s="63" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P15" s="64" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="64" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R15" s="64" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S15" s="64">
         <v>100</v>
       </c>
       <c r="Y15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="30" x14ac:dyDescent="0.25">
@@ -2881,16 +2881,16 @@
         <v>3</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H16" s="25">
         <f t="shared" si="0"/>
@@ -2917,25 +2917,25 @@
         <v>3</v>
       </c>
       <c r="O16" s="65" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P16" s="66" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="66" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R16" s="66" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S16" s="66">
         <v>100</v>
       </c>
       <c r="U16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="V16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Y16">
         <v>1</v>
@@ -2961,7 +2961,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>3</v>
@@ -2970,7 +2970,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H17" s="25">
         <f t="shared" si="0"/>
@@ -2997,22 +2997,22 @@
         <v>3</v>
       </c>
       <c r="O17" s="65" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P17" s="66" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="66" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R17" s="66" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S17" s="66">
         <v>100</v>
       </c>
       <c r="U17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="V17">
         <v>8</v>
@@ -3041,16 +3041,16 @@
         <v>8</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H18" s="25">
         <f t="shared" si="0"/>
@@ -3077,22 +3077,22 @@
         <v>3</v>
       </c>
       <c r="O18" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="66" t="s">
         <v>68</v>
-      </c>
-      <c r="P18" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="R18" s="66" t="s">
-        <v>78</v>
       </c>
       <c r="S18" s="66">
         <v>100</v>
       </c>
       <c r="U18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V18">
         <v>20</v>
@@ -3120,7 +3120,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>3</v>
@@ -3129,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H19" s="25">
         <f t="shared" si="0"/>
@@ -3156,22 +3156,22 @@
         <v>3</v>
       </c>
       <c r="O19" s="65" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P19" s="66" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="66" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R19" s="66" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S19" s="66">
         <v>100</v>
       </c>
       <c r="U19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="V19">
         <f>V18-V17</f>
@@ -3201,7 +3201,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>3</v>
@@ -3210,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="0"/>
@@ -3237,16 +3237,16 @@
         <v>3</v>
       </c>
       <c r="O20" s="65" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P20" s="66" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="66" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R20" s="66" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S20" s="66">
         <v>100</v>
@@ -3275,7 +3275,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>3</v>
@@ -3284,7 +3284,7 @@
         <v>4</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H21" s="20">
         <f t="shared" si="0"/>
@@ -3311,16 +3311,16 @@
         <v>4</v>
       </c>
       <c r="O21" s="67" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P21" s="68" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="68" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R21" s="68" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S21" s="68">
         <v>100</v>
@@ -3349,7 +3349,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>3</v>
@@ -3358,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H22" s="20">
         <f t="shared" si="0"/>
@@ -3385,16 +3385,16 @@
         <v>4</v>
       </c>
       <c r="O22" s="67" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P22" s="68" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="68" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R22" s="68" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S22" s="68">
         <v>100</v>
@@ -3411,7 +3411,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>3</v>
@@ -3420,7 +3420,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H23" s="20">
         <f t="shared" si="0"/>
@@ -3447,16 +3447,16 @@
         <v>4</v>
       </c>
       <c r="O23" s="67" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P23" s="68" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="68" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R23" s="68" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S23" s="68">
         <v>100</v>
@@ -3467,7 +3467,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>3</v>
@@ -3476,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H24" s="20">
         <f t="shared" si="0"/>
@@ -3503,28 +3503,28 @@
         <v>4</v>
       </c>
       <c r="O24" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="P24" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" s="68" t="s">
         <v>68</v>
-      </c>
-      <c r="P24" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q24" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="R24" s="68" t="s">
-        <v>78</v>
       </c>
       <c r="S24" s="68">
         <v>100</v>
       </c>
       <c r="Y24" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA24" t="s">
         <v>37</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="3:29" ht="30" x14ac:dyDescent="0.25">
@@ -3532,16 +3532,16 @@
         <v>2</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>4</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H25" s="30">
         <f t="shared" si="0"/>
@@ -3568,25 +3568,25 @@
         <v>5</v>
       </c>
       <c r="O25" s="69" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P25" s="70" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="70" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R25" s="70" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S25" s="70">
         <v>100</v>
       </c>
       <c r="U25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="V25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Y25" s="1">
         <v>0.8</v>
@@ -3603,16 +3603,16 @@
         <v>6</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H26" s="30">
         <f t="shared" si="0"/>
@@ -3639,28 +3639,28 @@
         <v>5</v>
       </c>
       <c r="O26" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="R26" s="70" t="s">
         <v>68</v>
-      </c>
-      <c r="P26" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q26" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="R26" s="70" t="s">
-        <v>78</v>
       </c>
       <c r="S26" s="70">
         <v>100</v>
       </c>
       <c r="U26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V26">
         <v>1</v>
       </c>
       <c r="X26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y26">
         <f>$V$28 * Y25</f>
@@ -3675,21 +3675,21 @@
         <v>0.69000000000000006</v>
       </c>
     </row>
-    <row r="27" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:29" ht="33" x14ac:dyDescent="0.25">
       <c r="C27" s="28">
         <v>9</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H27" s="30">
         <f t="shared" si="0"/>
@@ -3716,22 +3716,22 @@
         <v>5</v>
       </c>
       <c r="O27" s="69" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P27" s="70" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="70" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R27" s="70" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S27" s="70">
         <v>100</v>
       </c>
       <c r="U27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V27">
         <v>70</v>
@@ -3742,16 +3742,16 @@
         <v>14</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>4</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H28" s="30">
         <f t="shared" si="0"/>
@@ -3778,22 +3778,22 @@
         <v>5</v>
       </c>
       <c r="O28" s="69" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P28" s="70" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q28" s="70" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R28" s="70" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S28" s="70">
         <v>100</v>
       </c>
       <c r="U28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="V28">
         <f>V27-V26</f>
@@ -3805,16 +3805,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>9</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>10</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H29" s="40">
         <f t="shared" si="0"/>
@@ -3841,36 +3841,36 @@
         <v>6</v>
       </c>
       <c r="O29" s="71" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P29" s="72" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="72" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R29" s="72" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S29" s="72">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:29" ht="33" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>10</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="39" t="s">
         <v>4</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H30" s="40">
         <f t="shared" si="0"/>
@@ -3897,16 +3897,16 @@
         <v>6</v>
       </c>
       <c r="O30" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q30" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="R30" s="72" t="s">
         <v>68</v>
-      </c>
-      <c r="P30" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q30" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="R30" s="72" t="s">
-        <v>78</v>
       </c>
       <c r="S30" s="72">
         <v>100</v>
@@ -3917,16 +3917,16 @@
         <v>22</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E31" s="44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="44" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="44" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H31" s="45">
         <f t="shared" si="0"/>
@@ -3953,16 +3953,16 @@
         <v>6</v>
       </c>
       <c r="O31" s="73" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="P31" s="72" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="74" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R31" s="74" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S31" s="74">
         <v>100</v>

--- a/Assets/Documents/Database/Enemy/EnemyInfo.xlsx
+++ b/Assets/Documents/Database/Enemy/EnemyInfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Axe</t>
+  </si>
+  <si>
+    <t>EXP</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
     <dxf>
       <font>
         <b val="0"/>
@@ -733,6 +736,33 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1387,22 +1417,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table14131724" displayName="Table14131724" ref="Y2:AC10" totalsRowShown="0">
-  <autoFilter ref="Y2:AC10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table14131724" displayName="Table14131724" ref="Z2:AD10" totalsRowShown="0">
+  <autoFilter ref="Z2:AD10"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Level"/>
     <tableColumn id="2" name="Rate HP"/>
     <tableColumn id="3" name="Min HP"/>
     <tableColumn id="4" name="Max HP"/>
-    <tableColumn id="5" name="Chênh lệch HP" dataDxfId="27"/>
+    <tableColumn id="5" name="Chênh lệch HP" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table25141825" displayName="Table25141825" ref="U4:V7" totalsRowShown="0">
-  <autoFilter ref="U4:V7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table25141825" displayName="Table25141825" ref="V4:W7" totalsRowShown="0">
+  <autoFilter ref="V4:W7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Index"/>
@@ -1412,8 +1442,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table5151926" displayName="Table5151926" ref="U16:V20" totalsRowShown="0">
-  <autoFilter ref="U16:V20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table5151926" displayName="Table5151926" ref="V16:W20" totalsRowShown="0">
+  <autoFilter ref="V16:W20"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Index"/>
@@ -1423,22 +1453,22 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table147162027" displayName="Table147162027" ref="Y15:AC22" totalsRowShown="0">
-  <autoFilter ref="Y15:AC22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table147162027" displayName="Table147162027" ref="Z15:AD22" totalsRowShown="0">
+  <autoFilter ref="Z15:AD22"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Level"/>
     <tableColumn id="2" name="Rate Max Speed"/>
-    <tableColumn id="3" name="Min Speed" dataDxfId="26"/>
-    <tableColumn id="4" name="Max Speed" dataDxfId="25"/>
-    <tableColumn id="5" name="Chênh lệch Speed" dataDxfId="24"/>
+    <tableColumn id="3" name="Min Speed" dataDxfId="27"/>
+    <tableColumn id="4" name="Max Speed" dataDxfId="26"/>
+    <tableColumn id="5" name="Chênh lệch Speed" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table2028" displayName="Table2028" ref="U25:V29" totalsRowShown="0">
-  <autoFilter ref="U25:V29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table2028" displayName="Table2028" ref="V25:W29" totalsRowShown="0">
+  <autoFilter ref="V25:W29"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Index"/>
@@ -1448,20 +1478,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table2129" displayName="Table2129" ref="Y24:AA28" totalsRowShown="0">
-  <autoFilter ref="Y24:AA28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table2129" displayName="Table2129" ref="Z24:AB28" totalsRowShown="0">
+  <autoFilter ref="Z24:AB28"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Rate HP"/>
     <tableColumn id="2" name="Rate DEF"/>
-    <tableColumn id="3" name="Rate Speed" dataDxfId="23"/>
+    <tableColumn id="3" name="Rate Speed" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table2230" displayName="Table2230" ref="U11:V14" totalsRowShown="0">
-  <autoFilter ref="U11:V14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table2230" displayName="Table2230" ref="V11:W14" totalsRowShown="0">
+  <autoFilter ref="V11:W14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Index"/>
@@ -1471,43 +1501,44 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="C1:S31" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="C1:S31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="C1:T31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="C1:T31"/>
   <sortState ref="C2:O31">
     <sortCondition ref="N1:N31"/>
   </sortState>
-  <tableColumns count="17">
-    <tableColumn id="1" name="STT" dataDxfId="17"/>
-    <tableColumn id="2" name="NAME" dataDxfId="16"/>
-    <tableColumn id="3" name="BOSS" dataDxfId="15"/>
-    <tableColumn id="4" name="REGION" dataDxfId="14"/>
-    <tableColumn id="14" name="BRANCH" dataDxfId="13"/>
-    <tableColumn id="5" name="HP" dataDxfId="12">
-      <calculatedColumnFormula>IF(N2 =$Y$4, $AA$4 + $AC$4 * I2, IF(N2 = $Y$5, $AA$5 + $AC$5 * I2, IF(N2 = $Y$6, $AA$6 + $AC$6 * I2, IF(N2 = $Y$7, $AA$7 + $AC$7 * I2, IF(N2 = $Y$8, $AA$8 + $AC$8 * I2, $AA$9 + $AC$9 * I2)))))</calculatedColumnFormula>
+  <tableColumns count="18">
+    <tableColumn id="1" name="STT" dataDxfId="18"/>
+    <tableColumn id="2" name="NAME" dataDxfId="17"/>
+    <tableColumn id="3" name="BOSS" dataDxfId="16"/>
+    <tableColumn id="4" name="REGION" dataDxfId="15"/>
+    <tableColumn id="14" name="BRANCH" dataDxfId="14"/>
+    <tableColumn id="5" name="HP" dataDxfId="13">
+      <calculatedColumnFormula>IF(N2 =$Z$4, $AB$4 + $AD$4 * I2, IF(N2 = $Z$5, $AB$5 + $AD$5 * I2, IF(N2 = $Z$6, $AB$6 + $AD$6 * I2, IF(N2 = $Z$7, $AB$7 + $AD$7 * I2, IF(N2 = $Z$8, $AB$8 + $AD$8 * I2, $AB$9 + $AD$9 * I2)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Index HP" dataDxfId="11"/>
-    <tableColumn id="7" name="Speed" dataDxfId="10">
-      <calculatedColumnFormula>IF(N2 = $Y$16, $AA$16 + $AC$16 * K2, IF(N2 = $Y$17, $AA$17 + $AC$17 * K2, IF(N2 = $Y$18, $AA$18 + $AC$18 * K2, IF(N2 = $Y$19, $AA$19 + $AC$19 * K2, IF(N2 = $Y$20, $AA$20 + $AC$20 * K2, $AA$21 + $AC$21 * K2)))))</calculatedColumnFormula>
+    <tableColumn id="6" name="Index HP" dataDxfId="12"/>
+    <tableColumn id="7" name="Speed" dataDxfId="11">
+      <calculatedColumnFormula>IF(N2 = $Z$16, $AB$16 + $AD$16 * K2, IF(N2 = $Z$17, $AB$17 + $AD$17 * K2, IF(N2 = $Z$18, $AB$18 + $AD$18 * K2, IF(N2 = $Z$19, $AB$19 + $AD$19 * K2, IF(N2 = $Z$20, $AB$20 + $AD$20 * K2, $AB$21 + $AD$21 * K2)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Index Speed" dataDxfId="9"/>
-    <tableColumn id="9" name="Def" dataDxfId="8"/>
-    <tableColumn id="10" name="COIN" dataDxfId="7">
-      <calculatedColumnFormula>$V$26 + $Y$26 * (H2 - $V$5) / $V$7 + $Z$26 * (L2 - $V$12) / $V$14 + $AA$26 * (J2 - $V$17) / $V$19</calculatedColumnFormula>
+    <tableColumn id="8" name="Index Speed" dataDxfId="10"/>
+    <tableColumn id="9" name="Def" dataDxfId="9"/>
+    <tableColumn id="10" name="COIN" dataDxfId="8">
+      <calculatedColumnFormula>$W$26 + $Z$26 * (H2 - $W$5) / $W$7 + $AA$26 * (L2 - $W$12) / $W$14 + $AB$26 * (J2 - $W$17) / $W$19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="LEVEL" dataDxfId="6"/>
-    <tableColumn id="12" name="Direction" dataDxfId="5"/>
-    <tableColumn id="15" name="State" dataDxfId="4"/>
-    <tableColumn id="16" name="Time Frame" dataDxfId="3"/>
-    <tableColumn id="17" name="Frame Event" dataDxfId="2"/>
-    <tableColumn id="18" name="Scale" dataDxfId="1"/>
+    <tableColumn id="11" name="LEVEL" dataDxfId="7"/>
+    <tableColumn id="12" name="Direction" dataDxfId="6"/>
+    <tableColumn id="15" name="State" dataDxfId="5"/>
+    <tableColumn id="16" name="Time Frame" dataDxfId="4"/>
+    <tableColumn id="17" name="Frame Event" dataDxfId="3"/>
+    <tableColumn id="18" name="Scale" dataDxfId="2"/>
+    <tableColumn id="13" name="EXP" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="U1:V3" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="U1:V3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="V1:W3" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="V1:W3"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1779,11 +1810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,7 +1842,7 @@
     <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1866,19 +1897,22 @@
       <c r="S1" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="50" t="s">
+      <c r="T1" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="48"/>
+      <c r="V1" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="W1" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="50"/>
       <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
     </row>
-    <row r="2" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -1896,14 +1930,14 @@
         <v>71</v>
       </c>
       <c r="H2" s="15">
-        <f t="shared" ref="H2:H31" si="0">IF(N2 =$Y$4, $AA$4 + $AC$4 * I2, IF(N2 = $Y$5, $AA$5 + $AC$5 * I2, IF(N2 = $Y$6, $AA$6 + $AC$6 * I2, IF(N2 = $Y$7, $AA$7 + $AC$7 * I2, IF(N2 = $Y$8, $AA$8 + $AC$8 * I2, $AA$9 + $AC$9 * I2)))))</f>
+        <f t="shared" ref="H2:H31" si="0">IF(N2 =$Z$4, $AB$4 + $AD$4 * I2, IF(N2 = $Z$5, $AB$5 + $AD$5 * I2, IF(N2 = $Z$6, $AB$6 + $AD$6 * I2, IF(N2 = $Z$7, $AB$7 + $AD$7 * I2, IF(N2 = $Z$8, $AB$8 + $AD$8 * I2, $AB$9 + $AD$9 * I2)))))</f>
         <v>49.6</v>
       </c>
       <c r="I2" s="16">
         <v>0.2</v>
       </c>
       <c r="J2" s="17">
-        <f t="shared" ref="J2:J31" si="1">IF(N2 = $Y$16, $AA$16 + $AC$16 * K2, IF(N2 = $Y$17, $AA$17 + $AC$17 * K2, IF(N2 = $Y$18, $AA$18 + $AC$18 * K2, IF(N2 = $Y$19, $AA$19 + $AC$19 * K2, IF(N2 = $Y$20, $AA$20 + $AC$20 * K2, $AA$21 + $AC$21 * K2)))))</f>
+        <f t="shared" ref="J2:J31" si="1">IF(N2 = $Z$16, $AB$16 + $AD$16 * K2, IF(N2 = $Z$17, $AB$17 + $AD$17 * K2, IF(N2 = $Z$18, $AB$18 + $AD$18 * K2, IF(N2 = $Z$19, $AB$19 + $AD$19 * K2, IF(N2 = $Z$20, $AB$20 + $AD$20 * K2, $AB$21 + $AD$21 * K2)))))</f>
         <v>17.84</v>
       </c>
       <c r="K2" s="16">
@@ -1913,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="15">
-        <f t="shared" ref="M2:M31" si="2">$V$26 + $Y$26 * (H2 - $V$5) / $V$7 + $Z$26 * (L2 - $V$12) / $V$14 + $AA$26 * (J2 - $V$17) / $V$19</f>
+        <f t="shared" ref="M2:M31" si="2">$W$26 + $Z$26 * (H2 - $W$5) / $W$7 + $AA$26 * (L2 - $W$12) / $W$14 + $AB$26 * (J2 - $W$17) / $W$19</f>
         <v>2.1177999999999999</v>
       </c>
       <c r="N2" s="52">
@@ -1934,25 +1968,28 @@
       <c r="S2" s="61">
         <v>100</v>
       </c>
-      <c r="U2" s="50"/>
+      <c r="T2" s="61">
+        <v>7</v>
+      </c>
       <c r="V2" s="50"/>
-      <c r="Y2" t="s">
+      <c r="W2" s="50"/>
+      <c r="Z2" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -2010,24 +2047,27 @@
       <c r="S3" s="62">
         <v>100</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
+      <c r="T3" s="62">
+        <v>10</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
         <v>40</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AD3" s="3">
         <f>Table14131724[[#This Row],[Max HP]]-Table14131724[[#This Row],[Min HP]]</f>
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2085,32 +2125,35 @@
       <c r="S4" s="62">
         <v>100</v>
       </c>
-      <c r="U4" t="s">
+      <c r="T4" s="62">
+        <v>10</v>
+      </c>
+      <c r="V4" t="s">
         <v>34</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>35</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
         <v>0.05</v>
       </c>
-      <c r="AA4" s="3">
-        <f t="shared" ref="AA4:AA9" si="3">AB3</f>
+      <c r="AB4" s="3">
+        <f t="shared" ref="AB4:AB9" si="3">AC3</f>
         <v>40</v>
       </c>
-      <c r="AB4" s="3">
-        <f>Table14131724[[#This Row],[Min HP]]+$V$7 * Table14131724[[#This Row],[Rate HP]]</f>
+      <c r="AC4" s="3">
+        <f>Table14131724[[#This Row],[Min HP]]+$W$7 * Table14131724[[#This Row],[Rate HP]]</f>
         <v>88</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AD4" s="3">
         <f>Table14131724[[#This Row],[Max HP]]-Table14131724[[#This Row],[Min HP]]</f>
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="13">
         <v>15</v>
       </c>
@@ -2165,32 +2208,35 @@
       <c r="S5" s="62">
         <v>100</v>
       </c>
-      <c r="U5" t="s">
+      <c r="T5" s="61">
+        <v>7</v>
+      </c>
+      <c r="V5" t="s">
         <v>26</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>40</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>0.12</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AB5" s="3">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="AB5" s="3">
-        <f>Table14131724[[#This Row],[Min HP]]+$V$7 * Table14131724[[#This Row],[Rate HP]]</f>
+      <c r="AC5" s="3">
+        <f>Table14131724[[#This Row],[Min HP]]+$W$7 * Table14131724[[#This Row],[Rate HP]]</f>
         <v>203.2</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AD5" s="3">
         <f>Table14131724[[#This Row],[Max HP]]-Table14131724[[#This Row],[Min HP]]</f>
         <v>115.19999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="13">
         <v>19</v>
       </c>
@@ -2245,32 +2291,35 @@
       <c r="S6" s="62">
         <v>100</v>
       </c>
-      <c r="U6" t="s">
+      <c r="T6" s="61">
+        <v>7</v>
+      </c>
+      <c r="V6" t="s">
         <v>27</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AB6" s="3">
         <f t="shared" si="3"/>
         <v>203.2</v>
       </c>
-      <c r="AB6" s="3">
-        <f>Table14131724[[#This Row],[Min HP]]+$V$7 * Table14131724[[#This Row],[Rate HP]]</f>
+      <c r="AC6" s="3">
+        <f>Table14131724[[#This Row],[Min HP]]+$W$7 * Table14131724[[#This Row],[Rate HP]]</f>
         <v>337.6</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AD6" s="3">
         <f>Table14131724[[#This Row],[Max HP]]-Table14131724[[#This Row],[Min HP]]</f>
         <v>134.40000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="13">
         <v>20</v>
       </c>
@@ -2325,33 +2374,36 @@
       <c r="S7" s="62">
         <v>100</v>
       </c>
-      <c r="U7" t="s">
+      <c r="T7" s="61">
+        <v>7</v>
+      </c>
+      <c r="V7" t="s">
         <v>28</v>
       </c>
-      <c r="V7">
-        <f>V6-V5</f>
+      <c r="W7">
+        <f>W6-W5</f>
         <v>960</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>4</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA7" s="1">
         <v>0.18</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AB7" s="3">
         <f t="shared" si="3"/>
         <v>337.6</v>
       </c>
-      <c r="AB7" s="3">
-        <f>Table14131724[[#This Row],[Min HP]]+$V$7 * Table14131724[[#This Row],[Rate HP]]</f>
+      <c r="AC7" s="3">
+        <f>Table14131724[[#This Row],[Min HP]]+$W$7 * Table14131724[[#This Row],[Rate HP]]</f>
         <v>510.4</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AD7" s="3">
         <f>Table14131724[[#This Row],[Max HP]]-Table14131724[[#This Row],[Min HP]]</f>
         <v>172.79999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="13">
         <v>21</v>
       </c>
@@ -2406,26 +2458,29 @@
       <c r="S8" s="62">
         <v>100</v>
       </c>
-      <c r="Y8">
+      <c r="T8" s="62">
+        <v>10</v>
+      </c>
+      <c r="Z8">
         <v>5</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA8" s="1">
         <v>0.22</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <f t="shared" si="3"/>
         <v>510.4</v>
       </c>
-      <c r="AB8" s="3">
-        <f>Table14131724[[#This Row],[Min HP]]+$V$7 * Table14131724[[#This Row],[Rate HP]]</f>
+      <c r="AC8" s="3">
+        <f>Table14131724[[#This Row],[Min HP]]+$W$7 * Table14131724[[#This Row],[Rate HP]]</f>
         <v>721.59999999999991</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <f>Table14131724[[#This Row],[Max HP]]-Table14131724[[#This Row],[Min HP]]</f>
         <v>211.19999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="13">
         <v>28</v>
       </c>
@@ -2480,27 +2535,30 @@
       <c r="S9" s="62">
         <v>100</v>
       </c>
-      <c r="Y9">
+      <c r="T9" s="61">
+        <v>7</v>
+      </c>
+      <c r="Z9">
         <v>6</v>
       </c>
-      <c r="Z9" s="1">
-        <f>100% - Z8-Z7-Z6-Z5-Z4</f>
+      <c r="AA9" s="1">
+        <f>100% - AA8-AA7-AA6-AA5-AA4</f>
         <v>0.29000000000000009</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <f t="shared" si="3"/>
         <v>721.59999999999991</v>
       </c>
-      <c r="AB9" s="3">
-        <f>Table14131724[[#This Row],[Min HP]]+$V$7 * Table14131724[[#This Row],[Rate HP]]</f>
+      <c r="AC9" s="3">
+        <f>Table14131724[[#This Row],[Min HP]]+$W$7 * Table14131724[[#This Row],[Rate HP]]</f>
         <v>1000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <f>Table14131724[[#This Row],[Max HP]]-Table14131724[[#This Row],[Min HP]]</f>
         <v>278.40000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="33">
         <v>4</v>
       </c>
@@ -2555,8 +2613,11 @@
       <c r="S10" s="64">
         <v>100</v>
       </c>
+      <c r="T10" s="64">
+        <v>15</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="33">
         <v>18</v>
       </c>
@@ -2611,14 +2672,17 @@
       <c r="S11" s="64">
         <v>100</v>
       </c>
-      <c r="U11" t="s">
+      <c r="T11" s="64">
+        <v>12</v>
+      </c>
+      <c r="V11" t="s">
         <v>34</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="33">
         <v>23</v>
       </c>
@@ -2673,14 +2737,17 @@
       <c r="S12" s="64">
         <v>100</v>
       </c>
-      <c r="U12" t="s">
+      <c r="T12" s="64">
+        <v>14</v>
+      </c>
+      <c r="V12" t="s">
         <v>45</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="33">
         <v>25</v>
       </c>
@@ -2735,14 +2802,17 @@
       <c r="S13" s="64">
         <v>100</v>
       </c>
-      <c r="U13" t="s">
+      <c r="T13" s="64">
+        <v>20</v>
+      </c>
+      <c r="V13" t="s">
         <v>47</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="C14" s="33">
         <v>29</v>
       </c>
@@ -2797,15 +2867,18 @@
       <c r="S14" s="64">
         <v>100</v>
       </c>
-      <c r="U14" t="s">
+      <c r="T14" s="64">
+        <v>20</v>
+      </c>
+      <c r="V14" t="s">
         <v>48</v>
       </c>
-      <c r="V14">
-        <f>V13-V12</f>
+      <c r="W14">
+        <f>W13-W12</f>
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="33">
         <v>30</v>
       </c>
@@ -2860,23 +2933,26 @@
       <c r="S15" s="64">
         <v>100</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="T15" s="64">
+        <v>20</v>
+      </c>
+      <c r="Z15" t="s">
         <v>32</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>40</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>29</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>30</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="23">
         <v>3</v>
       </c>
@@ -2931,32 +3007,35 @@
       <c r="S16" s="66">
         <v>100</v>
       </c>
-      <c r="U16" t="s">
+      <c r="T16" s="66">
+        <v>25</v>
+      </c>
+      <c r="V16" t="s">
         <v>34</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>35</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AA16" s="2">
         <v>1</v>
       </c>
-      <c r="AA16" s="4">
-        <f>$V$17 + Z17 * $V$19</f>
+      <c r="AB16" s="4">
+        <f>$W$17 + AA17 * $W$19</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="AB16" s="4">
-        <f xml:space="preserve"> $V$17 + $V$19 * Table147162027[[#This Row],[Rate Max Speed]]</f>
+      <c r="AC16" s="4">
+        <f xml:space="preserve"> $W$17 + $W$19 * Table147162027[[#This Row],[Rate Max Speed]]</f>
         <v>20</v>
       </c>
-      <c r="AC16" s="4">
+      <c r="AD16" s="4">
         <f>Table147162027[[#This Row],[Max Speed]]-Table147162027[[#This Row],[Min Speed]]</f>
         <v>3.6000000000000014</v>
       </c>
     </row>
-    <row r="17" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="23">
         <v>7</v>
       </c>
@@ -3011,32 +3090,35 @@
       <c r="S17" s="66">
         <v>100</v>
       </c>
-      <c r="U17" t="s">
+      <c r="T17" s="66">
+        <v>25</v>
+      </c>
+      <c r="V17" t="s">
         <v>29</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>8</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="AA17" s="2">
         <v>0.7</v>
       </c>
-      <c r="AA17" s="4">
-        <f t="shared" ref="AA17:AA21" si="4">$V$17 + Z18 * $V$19</f>
+      <c r="AB17" s="4">
+        <f t="shared" ref="AB17:AB21" si="4">$W$17 + AA18 * $W$19</f>
         <v>14</v>
       </c>
-      <c r="AB17" s="4">
-        <f xml:space="preserve"> $V$17 + $V$19 * Table147162027[[#This Row],[Rate Max Speed]]</f>
+      <c r="AC17" s="4">
+        <f xml:space="preserve"> $W$17 + $W$19 * Table147162027[[#This Row],[Rate Max Speed]]</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AD17" s="4">
         <f>Table147162027[[#This Row],[Max Speed]]-Table147162027[[#This Row],[Min Speed]]</f>
         <v>2.3999999999999986</v>
       </c>
     </row>
-    <row r="18" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" s="23">
         <v>8</v>
       </c>
@@ -3091,31 +3173,34 @@
       <c r="S18" s="66">
         <v>100</v>
       </c>
-      <c r="U18" t="s">
+      <c r="T18" s="66">
+        <v>25</v>
+      </c>
+      <c r="V18" t="s">
         <v>30</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>20</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>3</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="AA18" s="2">
         <v>0.5</v>
       </c>
-      <c r="AA18" s="4">
+      <c r="AB18" s="4">
         <f t="shared" si="4"/>
         <v>12.2</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AC18" s="4">
         <v>14</v>
       </c>
-      <c r="AC18" s="4">
+      <c r="AD18" s="4">
         <f>Table147162027[[#This Row],[Max Speed]]-Table147162027[[#This Row],[Min Speed]]</f>
         <v>1.8000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="23">
         <v>17</v>
       </c>
@@ -3170,33 +3255,36 @@
       <c r="S19" s="66">
         <v>100</v>
       </c>
-      <c r="U19" t="s">
+      <c r="T19" s="66">
+        <v>25</v>
+      </c>
+      <c r="V19" t="s">
         <v>31</v>
       </c>
-      <c r="V19">
-        <f>V18-V17</f>
+      <c r="W19">
+        <f>W18-W17</f>
         <v>12</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>4</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="AA19" s="2">
         <v>0.35</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AB19" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="AB19" s="4">
-        <f xml:space="preserve"> $V$17 + $V$19 * Table147162027[[#This Row],[Rate Max Speed]]</f>
+      <c r="AC19" s="4">
+        <f xml:space="preserve"> $W$17 + $W$19 * Table147162027[[#This Row],[Rate Max Speed]]</f>
         <v>12.2</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AD19" s="4">
         <f>Table147162027[[#This Row],[Max Speed]]-Table147162027[[#This Row],[Min Speed]]</f>
         <v>1.1999999999999993</v>
       </c>
     </row>
-    <row r="20" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="23">
         <v>26</v>
       </c>
@@ -3251,26 +3339,29 @@
       <c r="S20" s="66">
         <v>100</v>
       </c>
-      <c r="Y20">
+      <c r="T20" s="66">
+        <v>25</v>
+      </c>
+      <c r="Z20">
         <v>5</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="AA20" s="2">
         <v>0.25</v>
       </c>
-      <c r="AA20" s="4">
+      <c r="AB20" s="4">
         <f t="shared" si="4"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="AB20" s="4">
-        <f xml:space="preserve"> $V$17 + $V$19 * Table147162027[[#This Row],[Rate Max Speed]]</f>
+      <c r="AC20" s="4">
+        <f xml:space="preserve"> $W$17 + $W$19 * Table147162027[[#This Row],[Rate Max Speed]]</f>
         <v>11</v>
       </c>
-      <c r="AC20" s="4">
+      <c r="AD20" s="4">
         <f>Table147162027[[#This Row],[Max Speed]]-Table147162027[[#This Row],[Min Speed]]</f>
         <v>1.1999999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="18">
         <v>13</v>
       </c>
@@ -3325,26 +3416,29 @@
       <c r="S21" s="68">
         <v>100</v>
       </c>
-      <c r="Y21">
+      <c r="T21" s="68">
+        <v>30</v>
+      </c>
+      <c r="Z21">
         <v>6</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AA21" s="1">
         <v>0.15</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AB21" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AB21" s="4">
-        <f xml:space="preserve"> $V$17 + $V$19 * Table147162027[[#This Row],[Rate Max Speed]]</f>
+      <c r="AC21" s="4">
+        <f xml:space="preserve"> $W$17 + $W$19 * Table147162027[[#This Row],[Rate Max Speed]]</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AD21" s="4">
         <f>Table147162027[[#This Row],[Max Speed]]-Table147162027[[#This Row],[Min Speed]]</f>
         <v>1.8000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="18">
         <v>16</v>
       </c>
@@ -3399,14 +3493,17 @@
       <c r="S22" s="68">
         <v>100</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="T22" s="68">
+        <v>30</v>
+      </c>
+      <c r="AA22" s="1">
         <v>0</v>
       </c>
-      <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="5"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C23" s="18">
         <v>24</v>
       </c>
@@ -3461,8 +3558,11 @@
       <c r="S23" s="68">
         <v>100</v>
       </c>
+      <c r="T23" s="68">
+        <v>30</v>
+      </c>
     </row>
-    <row r="24" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C24" s="18">
         <v>27</v>
       </c>
@@ -3517,17 +3617,20 @@
       <c r="S24" s="68">
         <v>100</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="T24" s="68">
+        <v>30</v>
+      </c>
+      <c r="Z24" t="s">
         <v>33</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>46</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="28">
         <v>2</v>
       </c>
@@ -3582,23 +3685,26 @@
       <c r="S25" s="70">
         <v>100</v>
       </c>
-      <c r="U25" t="s">
+      <c r="T25" s="70">
+        <v>35</v>
+      </c>
+      <c r="V25" t="s">
         <v>34</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>35</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>0.8</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AA25" s="1">
         <v>0.2</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AB25" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="28">
         <v>6</v>
       </c>
@@ -3653,29 +3759,32 @@
       <c r="S26" s="70">
         <v>100</v>
       </c>
-      <c r="U26" t="s">
+      <c r="T26" s="70">
+        <v>35</v>
+      </c>
+      <c r="V26" t="s">
         <v>41</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>25</v>
       </c>
-      <c r="Y26">
-        <f>$V$28 * Y25</f>
+      <c r="Z26">
+        <f>$W$28 * Z25</f>
         <v>55.2</v>
       </c>
-      <c r="Z26">
-        <f t="shared" ref="Z26:AA26" si="5">$V$28 * Z25</f>
+      <c r="AA26">
+        <f t="shared" ref="AA26:AB26" si="5">$W$28 * AA25</f>
         <v>13.8</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <f t="shared" si="5"/>
         <v>0.69000000000000006</v>
       </c>
     </row>
-    <row r="27" spans="3:29" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:30" ht="33" x14ac:dyDescent="0.25">
       <c r="C27" s="28">
         <v>9</v>
       </c>
@@ -3730,14 +3839,17 @@
       <c r="S27" s="70">
         <v>100</v>
       </c>
-      <c r="U27" t="s">
+      <c r="T27" s="70">
+        <v>35</v>
+      </c>
+      <c r="V27" t="s">
         <v>42</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="28">
         <v>14</v>
       </c>
@@ -3792,15 +3904,18 @@
       <c r="S28" s="70">
         <v>100</v>
       </c>
-      <c r="U28" t="s">
+      <c r="T28" s="70">
+        <v>35</v>
+      </c>
+      <c r="V28" t="s">
         <v>43</v>
       </c>
-      <c r="V28">
-        <f>V27-V26</f>
+      <c r="W28">
+        <f>W27-W26</f>
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>5</v>
       </c>
@@ -3855,8 +3970,11 @@
       <c r="S29" s="72">
         <v>100</v>
       </c>
+      <c r="T29" s="72">
+        <v>40</v>
+      </c>
     </row>
-    <row r="30" spans="3:29" ht="33" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:30" ht="33" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>10</v>
       </c>
@@ -3911,8 +4029,11 @@
       <c r="S30" s="72">
         <v>100</v>
       </c>
+      <c r="T30" s="72">
+        <v>40</v>
+      </c>
     </row>
-    <row r="31" spans="3:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:30" ht="30" x14ac:dyDescent="0.25">
       <c r="C31" s="43">
         <v>22</v>
       </c>
@@ -3966,6 +4087,9 @@
       </c>
       <c r="S31" s="74">
         <v>100</v>
+      </c>
+      <c r="T31" s="72">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
